--- a/assets/translation/translations.xlsx
+++ b/assets/translation/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="255">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -682,6 +682,123 @@
   </si>
   <si>
     <t xml:space="preserve">Augmenter ou diminuer le gamma\nle robot de Godot doit être à peine visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas à GAUCHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas à DROITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_jump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sauter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context_action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrow_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrow_down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrow_left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAUCHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrow_right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DROITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mouse_click_left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L Click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clique G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label_keyboard_mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyboard Mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disposition du clavier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">press_action_to_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press "Use" to start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Utiliser" pour démarrer</t>
   </si>
 </sst>
 </file>
@@ -857,10 +974,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C97" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1783,6 +1900,160 @@
         <v>215</v>
       </c>
     </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/assets/translation/translations.xlsx
+++ b/assets/translation/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="287">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -427,18 +427,14 @@
   </si>
   <si>
     <t xml:space="preserve">I created all the other assets you'll find in this project. This means:
-- The crappy music playing in the background near the merchant
-- The image of merchant
-- The images used to texture the test level
+- All images used to texture the supermarket
 - All 3D models
 - All sounds (mostly made with https://sfxr.me)
 Feel free to do whatever you want with these and this project.</t>
   </si>
   <si>
     <t xml:space="preserve">J'ai créé toutes les autres ressources de ce projet. À savoir:
-- La musique naze qui joue près du marchand
-- La texture du marchand
-- Les images qui servent à texturer le niveau test
+- Les images qui servent à texturer le supermarché
 - Tous les modèles 3D
 - Tous les sons (principalement générés sur ce site https://sfxr.me)
 N'hésitez pas à faire ce que vous voulez avec ces ressources et le projet lui-même.</t>
@@ -675,15 +671,6 @@
     <t xml:space="preserve">Effets</t>
   </si>
   <si>
-    <t xml:space="preserve">gamma_hint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase or lower the gamma value\nGodot's robot must be barely visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augmenter ou diminuer le gamma\nle robot de Godot doit être à peine visible</t>
-  </si>
-  <si>
     <t xml:space="preserve">move_forward</t>
   </si>
   <si>
@@ -799,6 +786,111 @@
   </si>
   <si>
     <t xml:space="preserve">"Utiliser" pour démarrer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grocery list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liste de course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can_of_soup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can of soup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soupe en boîte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_of_cereal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cereal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Céréal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soda_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soda_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toilet_paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toilet paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Café</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snacks_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snacks_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant_noodle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instant Noodle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouilles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fruits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Légumes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sucre</t>
   </si>
 </sst>
 </file>
@@ -813,6 +905,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -834,6 +927,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -974,13 +1068,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C97" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.18"/>
@@ -1526,7 +1620,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>133</v>
       </c>
@@ -1916,40 +2010,40 @@
         <v>219</v>
       </c>
       <c r="B85" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>224</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B88" s="0" t="s">
         <v>226</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>227</v>
@@ -2052,6 +2146,149 @@
       </c>
       <c r="C97" s="0" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/assets/translation/translations.xlsx
+++ b/assets/translation/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="326">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -891,6 +891,123 @@
   </si>
   <si>
     <t xml:space="preserve">Sucre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanks_for_playing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the end.\nThanks for playing\nthis game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C'est la fin.\nMerci d'avoir joué\nà ce jeu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvl_title_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jour 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvl_title_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jour 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvl_title_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jour 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvl_title_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jour 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvl_title_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jour 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvl_title_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">un jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvl_quote_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you live for having it all, what you have is never enough.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si votre but est de tout avoir, vous n'obtiendrez jamais assez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvl_quote_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We used to be citizens\nNow we are consumers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autrefois, nous étions des citoyens\nAujourd'hui, nous sommes des consommateurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvl_quote_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We always want more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous voulons toujours plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvl_quote_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth provides enough to satisfy every man's needs, but not every man's greed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Terre est suffisante pour les besoins de l'hommes, mais pas assez pour sa cupidité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvl_quote_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We no longer live life. We consume it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous ne vivons plus notre vie, nous la consommons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvl_quote_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hardest thing is to take less when you can get more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le plus dur, c'est de prendre moins lorsqu'on peut prendre plus</t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1185,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2291,6 +2408,149 @@
         <v>286</v>
       </c>
     </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/assets/translation/translations.xlsx
+++ b/assets/translation/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="337">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t xml:space="preserve">fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game-title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo-Sapiens</t>
   </si>
   <si>
     <t xml:space="preserve">game-by</t>
@@ -1008,6 +1014,33 @@
   </si>
   <si>
     <t xml:space="preserve">Le plus dur, c'est de prendre moins lorsqu'on peut prendre plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main-menu-start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start new game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouvelle partie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main-menu-continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main-menu-settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramètres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main-menu-quit</t>
   </si>
 </sst>
 </file>
@@ -1185,13 +1218,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B129" activeCellId="0" sqref="B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.18"/>
@@ -1217,111 +1250,111 @@
         <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>33</v>
@@ -1335,65 +1368,65 @@
         <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1404,7 +1437,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1415,15 +1448,15 @@
         <v>55</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>58</v>
@@ -1437,34 +1470,34 @@
         <v>60</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>68</v>
@@ -1511,73 +1544,73 @@
         <v>76</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="C30" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="C33" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>95</v>
@@ -1591,26 +1624,26 @@
         <v>97</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="C37" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>103</v>
@@ -1635,70 +1668,70 @@
         <v>107</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="C41" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="C42" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="B45" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="C45" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>124</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>124</v>
@@ -1712,136 +1745,136 @@
         <v>126</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="C48" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="B51" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="C51" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="C52" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="C53" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="C54" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="C55" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="C56" s="0" t="s">
         <v>152</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="C57" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="C58" s="0" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>95</v>
@@ -1849,76 +1882,76 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="C61" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="C62" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="C63" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="C64" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="C65" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>178</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>178</v>
@@ -1943,7 +1976,7 @@
         <v>182</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,87 +1984,87 @@
         <v>183</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>186</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="C71" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="C72" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="C73" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="C74" s="0" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B75" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,7 +2072,7 @@
         <v>200</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>201</v>
@@ -2047,87 +2080,87 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>205</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="C81" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="C82" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B83" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="C83" s="0" t="s">
         <v>214</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="C84" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>155</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>220</v>
@@ -2138,7 +2171,7 @@
         <v>221</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>222</v>
@@ -2149,7 +2182,7 @@
         <v>223</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>224</v>
@@ -2160,150 +2193,150 @@
         <v>225</v>
       </c>
       <c r="B88" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" s="0" t="s">
         <v>226</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B89" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="C89" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B90" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="C90" s="0" t="s">
         <v>232</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B91" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="C91" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B92" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="C92" s="0" t="s">
         <v>238</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B93" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="C93" s="0" t="s">
         <v>241</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B94" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="C94" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B95" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="C95" s="0" t="s">
         <v>247</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B96" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="C96" s="0" t="s">
         <v>250</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="C97" s="0" t="s">
         <v>253</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B98" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="C98" s="0" t="s">
         <v>256</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B99" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="C99" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="C100" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B101" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>265</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>265</v>
@@ -2314,40 +2347,40 @@
         <v>266</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>268</v>
-      </c>
       <c r="C103" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B104" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="C104" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B105" s="0" t="s">
         <v>273</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>274</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>274</v>
@@ -2358,29 +2391,29 @@
         <v>275</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B107" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B107" s="0" t="s">
-        <v>277</v>
-      </c>
       <c r="C107" s="0" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B108" s="0" t="s">
         <v>279</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>280</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>280</v>
@@ -2394,161 +2427,216 @@
         <v>282</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="C110" s="0" t="s">
         <v>285</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B111" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="C111" s="0" t="s">
         <v>288</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B112" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="C112" s="0" t="s">
         <v>291</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B113" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="C113" s="0" t="s">
         <v>294</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B114" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="C114" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B115" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="C115" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B116" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="C116" s="0" t="s">
         <v>303</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B117" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="C117" s="0" t="s">
         <v>306</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B118" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="C118" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B119" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="C119" s="0" t="s">
         <v>312</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B120" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="C120" s="0" t="s">
         <v>315</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B121" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="C121" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B122" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="C122" s="0" t="s">
         <v>321</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B123" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="C123" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="C123" s="0" t="s">
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>325</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/assets/translation/translations.xlsx
+++ b/assets/translation/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="340">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -1041,6 +1041,15 @@
   </si>
   <si>
     <t xml:space="preserve">main-menu-quit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game-paused</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title-settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quit-menu</t>
   </si>
 </sst>
 </file>
@@ -1218,13 +1227,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B129" activeCellId="0" sqref="B129"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C131" activeCellId="0" sqref="C131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.18"/>
@@ -2637,6 +2646,39 @@
       </c>
       <c r="C128" s="0" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
